--- a/data/hotels_by_city/Houston/Houston_shard_322.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_322.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="291">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d559491-Reviews-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
@@ -139,6 +145,750 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r581092987-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>559491</t>
+  </si>
+  <si>
+    <t>581092987</t>
+  </si>
+  <si>
+    <t>05/18/2018</t>
+  </si>
+  <si>
+    <t>Work trip April 23 - 27, 2018</t>
+  </si>
+  <si>
+    <t>Room 320 facing back side of hotel.  Very little noise. Room was updated, nice choice of soft or firm pillows. Safe didn't work and one light bulb was out in bathroom.  Hotel was in walking distance to Chili's and 24 Hour Fitness.  Hotel has work out room, but only a few machines and weights.  I didn't utilize it as my work took me walking all day.  Pool looked nice, but didn't use it.  Staff was very nice and always available.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r564827514-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>564827514</t>
+  </si>
+  <si>
+    <t>03/06/2018</t>
+  </si>
+  <si>
+    <t>It’s a Holiday Inn Express</t>
+  </si>
+  <si>
+    <t>It’s exactly what you would expect from a Holiday Inn Express; nice clean and comfortable rooms. “I stayed at a Holiday Inn Express” certainly applies to this as I slept very comfortably. The bed is a little firm for my taste, but I was able to find a pillow I could relax with.The parking is a little sparse if the hotel fills up or somebody parks their large duelly truck with trailers. The breakfast is nothing special, but it serves the purpose; as does the fitness center.If you are wanting to be right down in the action of downtown, this is not the hotel for you; but if you don’t mind a bit of commute, this hotel works perfectly.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>It’s exactly what you would expect from a Holiday Inn Express; nice clean and comfortable rooms. “I stayed at a Holiday Inn Express” certainly applies to this as I slept very comfortably. The bed is a little firm for my taste, but I was able to find a pillow I could relax with.The parking is a little sparse if the hotel fills up or somebody parks their large duelly truck with trailers. The breakfast is nothing special, but it serves the purpose; as does the fitness center.If you are wanting to be right down in the action of downtown, this is not the hotel for you; but if you don’t mind a bit of commute, this hotel works perfectly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r543919482-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>543919482</t>
+  </si>
+  <si>
+    <t>11/28/2017</t>
+  </si>
+  <si>
+    <t>Remote location</t>
+  </si>
+  <si>
+    <t>There is no problem with the hotel. But the location is little remote though it is inside city region very difficult to see people outside after 6 pm. So for natural walkers this is not a right place. Breakfast is good but using all plastic plates, spoons could be improved.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r504341596-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>504341596</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t>Locations &amp; service</t>
+  </si>
+  <si>
+    <t>Location is good. TV and rooms are large.But beds are moistured/sticky,If one need a internet, then this is not the place!Night shift staffs are not trained well.I had to move due to bad internet connection.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston East, responded to this reviewResponded August 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2017</t>
+  </si>
+  <si>
+    <t>Location is good. TV and rooms are large.But beds are moistured/sticky,If one need a internet, then this is not the place!Night shift staffs are not trained well.I had to move due to bad internet connection.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r499811279-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>499811279</t>
+  </si>
+  <si>
+    <t>07/08/2017</t>
+  </si>
+  <si>
+    <t>Updated, pleasant and close to dining</t>
+  </si>
+  <si>
+    <t>Stay in quite a few Holiday Inns and this one has recent updating and was nice.  Room was clean with new furniture (not sure what the longevity will be with the new updates, was fine for this trip but seems like some of the updating may not be the most sturdy).  Here is what was the best part, the "standard" HI free breakfast was actually much better than usual.  Fresh and good options.  Don't expect great views but the location was good with many food options only a short drive from the property.  All the staff I interacted with were polite, friendly and professional.  Hi end amazing property, no but would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Stay in quite a few Holiday Inns and this one has recent updating and was nice.  Room was clean with new furniture (not sure what the longevity will be with the new updates, was fine for this trip but seems like some of the updating may not be the most sturdy).  Here is what was the best part, the "standard" HI free breakfast was actually much better than usual.  Fresh and good options.  Don't expect great views but the location was good with many food options only a short drive from the property.  All the staff I interacted with were polite, friendly and professional.  Hi end amazing property, no but would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r388183606-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>388183606</t>
+  </si>
+  <si>
+    <t>07/01/2016</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>I was told all about how Houston can have rough areas. This hotel, however, was in a decant area. I did not have any issues during my extended stay. The hotel essentially shares an area with a movie theater, Chili's Restaurant, and some other businesses. The rooms are newly renovated, and overall the appearance of the hotel is nice. The complimentary breakfast is pretty good. The only reason I did not give this location 5 stars is because of the staff. When I first arrived on a Friday around 5:30pm I had to wait for several minutes and had to yell to the back office to be serviced. Additionally, the fitness center was 84 degrees so I asked the front desk to turn down the thermostat (there was a lock box over it) and the front desk employee rudely stated she had never done that before and that she "guessed she would have to figure it out." I didn't experience the southern hospitality with the staff, but the hotel is a nice place to stay if you're in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>I was told all about how Houston can have rough areas. This hotel, however, was in a decant area. I did not have any issues during my extended stay. The hotel essentially shares an area with a movie theater, Chili's Restaurant, and some other businesses. The rooms are newly renovated, and overall the appearance of the hotel is nice. The complimentary breakfast is pretty good. The only reason I did not give this location 5 stars is because of the staff. When I first arrived on a Friday around 5:30pm I had to wait for several minutes and had to yell to the back office to be serviced. Additionally, the fitness center was 84 degrees so I asked the front desk to turn down the thermostat (there was a lock box over it) and the front desk employee rudely stated she had never done that before and that she "guessed she would have to figure it out." I didn't experience the southern hospitality with the staff, but the hotel is a nice place to stay if you're in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r369873964-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>369873964</t>
+  </si>
+  <si>
+    <t>05/03/2016</t>
+  </si>
+  <si>
+    <t>Stayed for nine nights</t>
+  </si>
+  <si>
+    <t>I was in town for a week and a half and stayed here because of the close proximity to many restaurants.  I enjoyed my stay here and did not have any problems.  The front desk staff and maids always greet you with a smile and hello.  The rooms were clean and had nice walk-in tiled showers.  The free breakfast consisted of the usual biscuits and gravy, bacon, sausage, etc.  The cinnamon buns were my favorite.  Rooms had large flat sceen TV's with tons of channels, would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r347606141-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>347606141</t>
+  </si>
+  <si>
+    <t>02/14/2016</t>
+  </si>
+  <si>
+    <t>Great overall stay</t>
+  </si>
+  <si>
+    <t>Pros.... Nice renovation Large roomDecorThe receptionist (Charlotte) was a sweetie and very helpfulBreakfast person was extremely politeBreakfast was goodShower was wonderful Cons... Ac in room is kinda loudI'm a photographer... I wish i could have done some of the artwork *smile*</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r342668122-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>342668122</t>
+  </si>
+  <si>
+    <t>01/25/2016</t>
+  </si>
+  <si>
+    <t>Our go-to place!!!</t>
+  </si>
+  <si>
+    <t>This will be our third time staying here and many more to come. I forgot to review the 2nd time when they were redoing their front desk area and Nadia was a great help! Very polite and sweet, so I must say it is great to come back a third time an still see a great staff member still here! Still amazed at the 2 kings beds in one room plus space to still have a desk and chair! I hope all holiday inn expresses are doing this. My one dislike is the shower door, while in the shower it kept rolling back open, and that would lead to water getting out so maybe its just my room 319 or the door is heavy...not sure but shower was amazing though. Just don't want that to damage you guys door, plus i forgot to let front desk know......keep up the wonderful hotel...we shall returnMovie theater right behind the hotel, chili's right in front...want a whataburger fix...just drive a mile or two east...by academy, sam's, and walmart....everything you could possibly need is surrounding this wonderful hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Ketan P, General Manager at Holiday Inn Express &amp; Suites Houston East, responded to this reviewResponded January 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2016</t>
+  </si>
+  <si>
+    <t>This will be our third time staying here and many more to come. I forgot to review the 2nd time when they were redoing their front desk area and Nadia was a great help! Very polite and sweet, so I must say it is great to come back a third time an still see a great staff member still here! Still amazed at the 2 kings beds in one room plus space to still have a desk and chair! I hope all holiday inn expresses are doing this. My one dislike is the shower door, while in the shower it kept rolling back open, and that would lead to water getting out so maybe its just my room 319 or the door is heavy...not sure but shower was amazing though. Just don't want that to damage you guys door, plus i forgot to let front desk know......keep up the wonderful hotel...we shall returnMovie theater right behind the hotel, chili's right in front...want a whataburger fix...just drive a mile or two east...by academy, sam's, and walmart....everything you could possibly need is surrounding this wonderful hotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r314933455-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>314933455</t>
+  </si>
+  <si>
+    <t>09/29/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel for business</t>
+  </si>
+  <si>
+    <t>Under construction and renovation, but not anything that interferes with your stay. Rooms are clean and comfortable. This hotel comes with a nice breakfast as well. Staff at the front desk were friendly and welcoming. This hotel is walking distance from a few restaurantsMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Mguru367, General Manager at Holiday Inn Express &amp; Suites Houston East, responded to this reviewResponded October 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2015</t>
+  </si>
+  <si>
+    <t>Under construction and renovation, but not anything that interferes with your stay. Rooms are clean and comfortable. This hotel comes with a nice breakfast as well. Staff at the front desk were friendly and welcoming. This hotel is walking distance from a few restaurantsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r298480962-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>298480962</t>
+  </si>
+  <si>
+    <t>08/12/2015</t>
+  </si>
+  <si>
+    <t>Rude front desk</t>
+  </si>
+  <si>
+    <t>As a front desk employee at another holiday inn i was very disappointed... I've never been to hotel with very rude front desk staff. The only one that was very friendly and actually greeted us was the new older lady who was training. But, other than that everything else was great! The rooms were very big and clean. Evelyn and her supervisor were super friendly. And the two ladies who work down stairs in the breakfast area were also very friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mguru367, General Manager at Holiday Inn Express &amp; Suites Houston East, responded to this reviewResponded August 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2015</t>
+  </si>
+  <si>
+    <t>As a front desk employee at another holiday inn i was very disappointed... I've never been to hotel with very rude front desk staff. The only one that was very friendly and actually greeted us was the new older lady who was training. But, other than that everything else was great! The rooms were very big and clean. Evelyn and her supervisor were super friendly. And the two ladies who work down stairs in the breakfast area were also very friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r290999163-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>290999163</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>Safer inside than out!</t>
+  </si>
+  <si>
+    <t>Don't be fooled by the glossy photo images on the website, the reality is quite different. Upon arriving at this hotel, first impressions were scary. It is situated in a relatively industrial area of Houston. Although there is external refurbishment on-going, it will take quite some work to spruce the looks of this hotel up. The reception is and was welcoming by the Hispanic staff, who were faultless.The rooms are very, very good; solid furniture, excellent bed and extremely clean, continuously. Bathroom facilities were excellent too. The restaurant was basic although provided fresh and tasty food. Other facilities; gym, Jacuzzi, laundry, were simple but effective. However, the swimming pool was more like a septic tank! Advised not to walk or drive alone in this area........worrying.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Mguru367, General Manager at Holiday Inn Express &amp; Suites Houston East, responded to this reviewResponded July 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2015</t>
+  </si>
+  <si>
+    <t>Don't be fooled by the glossy photo images on the website, the reality is quite different. Upon arriving at this hotel, first impressions were scary. It is situated in a relatively industrial area of Houston. Although there is external refurbishment on-going, it will take quite some work to spruce the looks of this hotel up. The reception is and was welcoming by the Hispanic staff, who were faultless.The rooms are very, very good; solid furniture, excellent bed and extremely clean, continuously. Bathroom facilities were excellent too. The restaurant was basic although provided fresh and tasty food. Other facilities; gym, Jacuzzi, laundry, were simple but effective. However, the swimming pool was more like a septic tank! Advised not to walk or drive alone in this area........worrying.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r286050617-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>286050617</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>Relaxing one night stay</t>
+  </si>
+  <si>
+    <t>This hotel was very nice and well kempt. The hotel staff was friendly upon checkin and throughout our stay. Breakfast was good. Bed was very comfy and that shower stall is amazing. Love the rain shower head. Overall our stay was nice and for one night not too bad to find at all. That's why I give this hotel 5 stars.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Mguru367, General Manager at Holiday Inn Express &amp; Suites Houston East, responded to this reviewResponded July 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2015</t>
+  </si>
+  <si>
+    <t>This hotel was very nice and well kempt. The hotel staff was friendly upon checkin and throughout our stay. Breakfast was good. Bed was very comfy and that shower stall is amazing. Love the rain shower head. Overall our stay was nice and for one night not too bad to find at all. That's why I give this hotel 5 stars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r285171096-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>285171096</t>
+  </si>
+  <si>
+    <t>07/02/2015</t>
+  </si>
+  <si>
+    <t>Blown Away!</t>
+  </si>
+  <si>
+    <t>Just arrived here and it's love at first sight. I am already impressed with this hotel. The lighting from the exterior to the interior just makes you feel safe! We are in a king room. Not one king but TWO king beds are in this room, which is pretty much unheard of. This is a hotel that truly listened to their guests needs and wants. What hotel has a ceiling fan!? How clever! I couldn't resist taking photos, just see for yourself. Spacious room even with TWO kings and a desk and small lounge chair. Plenty of mirrors in the room which is a plus. Everybody doesn't have to crowd in the bathroom for hair and makeup. Tv is flat screen with what looks like 120hz or more. Smooth crisp picture! I can go in forever...everything in this place screams CLEAN!!! Plenty of sockets to charge the oodles of technology we carry around. Only staying for one night, but we have found our go-to spot when we are passing through. Plenty of restaurants in the vicinity. I can assume the breakfast will be pleasing, if i wake up in time. Beds are very comfy....as i am writing this review...umm i think i covered everything...pool looks soothing, hope i can get in for a bit!MoreShow less</t>
+  </si>
+  <si>
+    <t>Just arrived here and it's love at first sight. I am already impressed with this hotel. The lighting from the exterior to the interior just makes you feel safe! We are in a king room. Not one king but TWO king beds are in this room, which is pretty much unheard of. This is a hotel that truly listened to their guests needs and wants. What hotel has a ceiling fan!? How clever! I couldn't resist taking photos, just see for yourself. Spacious room even with TWO kings and a desk and small lounge chair. Plenty of mirrors in the room which is a plus. Everybody doesn't have to crowd in the bathroom for hair and makeup. Tv is flat screen with what looks like 120hz or more. Smooth crisp picture! I can go in forever...everything in this place screams CLEAN!!! Plenty of sockets to charge the oodles of technology we carry around. Only staying for one night, but we have found our go-to spot when we are passing through. Plenty of restaurants in the vicinity. I can assume the breakfast will be pleasing, if i wake up in time. Beds are very comfy....as i am writing this review...umm i think i covered everything...pool looks soothing, hope i can get in for a bit!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r273990362-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>273990362</t>
+  </si>
+  <si>
+    <t>05/23/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very comfortable road trip stop </t>
+  </si>
+  <si>
+    <t>This hotel seems quite new. The rooms are big with comfortable beds and a flat screen TV. The bathroom has a walk-in shower with a rain shower head.My only complaints are that breakfast hours are too limited (6 am to 9 am) and the hotel room doors are not snug in their frames, so a lot of light from the hallway gets into the room.Overall, I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mguru367, General Manager at Holiday Inn Express &amp; Suites Houston East, responded to this reviewResponded May 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2015</t>
+  </si>
+  <si>
+    <t>This hotel seems quite new. The rooms are big with comfortable beds and a flat screen TV. The bathroom has a walk-in shower with a rain shower head.My only complaints are that breakfast hours are too limited (6 am to 9 am) and the hotel room doors are not snug in their frames, so a lot of light from the hallway gets into the room.Overall, I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r226348456-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>226348456</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>It was a nice place to stay. Some places to dinner are very near. In fact there is a Chilli's restaurant crossing the street.The personnel is very helpful, I just have one concern when they tried to charge a phone call I never did. But it was solved OK.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Mguru367, General Manager at Holiday Inn Express &amp; Suites Houston East, responded to this reviewResponded September 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2014</t>
+  </si>
+  <si>
+    <t>It was a nice place to stay. Some places to dinner are very near. In fact there is a Chilli's restaurant crossing the street.The personnel is very helpful, I just have one concern when they tried to charge a phone call I never did. But it was solved OK.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r224180301-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>224180301</t>
+  </si>
+  <si>
+    <t>08/24/2014</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised!</t>
+  </si>
+  <si>
+    <t>Here for junior Olympics... Staff so friendly!  Room was clean and spacious. Fresh cookies each afternoon were great....so was the free breakfast!  Kids loved the pool and hottub. 10% off at a few nearby restaurants. Would absolutely recommend this place to anyone!MoreShow less</t>
+  </si>
+  <si>
+    <t>Mguru367, General Manager at Holiday Inn Express &amp; Suites Houston East, responded to this reviewResponded August 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2014</t>
+  </si>
+  <si>
+    <t>Here for junior Olympics... Staff so friendly!  Room was clean and spacious. Fresh cookies each afternoon were great....so was the free breakfast!  Kids loved the pool and hottub. 10% off at a few nearby restaurants. Would absolutely recommend this place to anyone!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r210220639-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>210220639</t>
+  </si>
+  <si>
+    <t>06/13/2014</t>
+  </si>
+  <si>
+    <t>What a great hotel in this area</t>
+  </si>
+  <si>
+    <t>I was so impressed by this hotel, best place I've stayed in this area!  Hotel is away from the highway and is quiet and clean.  Staff is so very friendly.  Breakfast is hot and includes eggs, omelets, bacon, sausage, cereal, and hot cinnamon rolls.  There is a nice outdoor pool, an indoor hot tub and a small work out room.  Lots of restaurants near by like chilis and salt grass.  Great place!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Mguru367, General Manager at Holiday Inn Express &amp; Suites Houston East, responded to this reviewResponded June 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2014</t>
+  </si>
+  <si>
+    <t>I was so impressed by this hotel, best place I've stayed in this area!  Hotel is away from the highway and is quiet and clean.  Staff is so very friendly.  Breakfast is hot and includes eggs, omelets, bacon, sausage, cereal, and hot cinnamon rolls.  There is a nice outdoor pool, an indoor hot tub and a small work out room.  Lots of restaurants near by like chilis and salt grass.  Great place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r201945023-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>201945023</t>
+  </si>
+  <si>
+    <t>04/20/2014</t>
+  </si>
+  <si>
+    <t>Great place on the east side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel is a decent HI Express in a predominantly industrial area... Great if you need to work on that side of town. Chili's in the common parking lot, along with nearby Saltgrass and Pappas Seafood make for some of the better dining options nearby. Rooms are very spacious and the staff are always very courteous. </t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r197224082-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>197224082</t>
+  </si>
+  <si>
+    <t>03/12/2014</t>
+  </si>
+  <si>
+    <t>Excellent choice if you are working in the area</t>
+  </si>
+  <si>
+    <t>This is an excellent hotel is you are working in the area or visiting family in the area.   It is located in a primarliy working class area east of Houston, so I don't see why anyone would vacation here.  But, if you are working here, no problem.  Restaurants are plentiful nearby.  Friends have stayed in trendier areas, but are driving 30-45 minutes to our place of business.   There is nothing at a mall here that I can't get at a mall at home, so I prefer the 5-10 minute drive.Rooms are clean and well serviced.  Cookies in the evening, wonderful breakfast in the morning.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r194333329-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>194333329</t>
+  </si>
+  <si>
+    <t>02/16/2014</t>
+  </si>
+  <si>
+    <t>Nice!</t>
+  </si>
+  <si>
+    <t>One of the nicest of the HI Express &amp; Suites we've stayed in!  The rooms are larger and updated and the property is very clean.   When we found our mattress not as comfortable as we'd like after our first night, the general manager quickly found us another room and let us try out the bed before deciding if we wanted to move.  The food was kept warm and tasted fresh.  A Tinsel Town, Chili's, Salt Grass Steakhouse, Marble Slab Creamery and many more restaurants close by.  Would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r178624633-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>178624633</t>
+  </si>
+  <si>
+    <t>09/25/2013</t>
+  </si>
+  <si>
+    <t>Stay Here!</t>
+  </si>
+  <si>
+    <t>What a great property. I stayed on the first floor and had 10 foot ceilings in my room (I think it was #130).  The room was very large and very comfortable. I wish I had that large of an HD TV in my house. Hallways are nice and wide and in great shape. This place must have just been built. My stay was a one night business trip and it was perfect. A few places nearby to catch something to eat one of which is just across the street. If you want or need to stay on the east side of Houston, stay here. I was not able to have breakfast because of a 5:45 departure but I am sure that they would have got something for me if I had asked. Hopefully I will have to work in this area again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>What a great property. I stayed on the first floor and had 10 foot ceilings in my room (I think it was #130).  The room was very large and very comfortable. I wish I had that large of an HD TV in my house. Hallways are nice and wide and in great shape. This place must have just been built. My stay was a one night business trip and it was perfect. A few places nearby to catch something to eat one of which is just across the street. If you want or need to stay on the east side of Houston, stay here. I was not able to have breakfast because of a 5:45 departure but I am sure that they would have got something for me if I had asked. Hopefully I will have to work in this area again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r176123032-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>176123032</t>
+  </si>
+  <si>
+    <t>09/06/2013</t>
+  </si>
+  <si>
+    <t>Our new preferred hotel when in the area!</t>
+  </si>
+  <si>
+    <t>We used to stay with the competition on the other side of the highway but their rates have become rather high.  We were pleasantly surprised with our first visit to this location.  The room was very nice as well as clean, spacious and affordable. Kumora (I'm probably spelling that wrong) was very courteous when checking us in. We will definitely stay here next time we're in the area. I took pics and hope to be able to attach them. At present I don't see an option to do so.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r165256140-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>165256140</t>
+  </si>
+  <si>
+    <t>06/25/2013</t>
+  </si>
+  <si>
+    <t>Truly the best holiday inn to choose; perhaps the best hotel choice for this price point in the area without doubt.</t>
+  </si>
+  <si>
+    <t>This is my third visit. I travel quite often to the greater Houston area and this particular holiday is by far superior. The staff is excellent. The location is easily within my area if work and the restaurant has kept this place top of mind; a relaxed environment; great food. The staff in the restaurant is top notch. I go out if my way to stay here. The people make the difference. The food is terrific. I recommend it highly.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r147557468-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147557468</t>
+  </si>
+  <si>
+    <t>12/16/2012</t>
+  </si>
+  <si>
+    <t>Staff is amazing..</t>
+  </si>
+  <si>
+    <t>This is a nice place to stay if you are in the area. The staff is great and very accomodating. Denise mentioned Ivory, and she is very kind and helpful. She will go out of her way to make sure you are satisfied. I was impressed with her hospitality. The king room I had was huge. Everything was functional and comfortable. There are several good restaurants surrounding this property including Salt Grass, Pappasito's (Unbelievable. Try the Mexico City chicken soup. It comes with white meat shredded chicken, rice, diced avocadoes and cilantro. It rocks. They also have a warm salsa with a bit of a kick.), and Chilis. Sorry, I digress. I get caught up when talking about food. I was pleased with my stay here. I really don't have any complaints, but maybe a suggestion. The lighting in the room is all fluorescent and it's just a little stark for my taste. It feels like being in the office. I know that the pressure is on to convert to energy saving mercury-laden bulbs, but I'm still having a problem with it. Maybe it's just me. It doesn't feel homey. Maybe others like it...I don't know. Personally, I still enjoy the warm, cozy glow of an incandescent bulb. To each his own. I just turn the lights out and open the window.I would recommend this property without hesitation.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>This is a nice place to stay if you are in the area. The staff is great and very accomodating. Denise mentioned Ivory, and she is very kind and helpful. She will go out of her way to make sure you are satisfied. I was impressed with her hospitality. The king room I had was huge. Everything was functional and comfortable. There are several good restaurants surrounding this property including Salt Grass, Pappasito's (Unbelievable. Try the Mexico City chicken soup. It comes with white meat shredded chicken, rice, diced avocadoes and cilantro. It rocks. They also have a warm salsa with a bit of a kick.), and Chilis. Sorry, I digress. I get caught up when talking about food. I was pleased with my stay here. I really don't have any complaints, but maybe a suggestion. The lighting in the room is all fluorescent and it's just a little stark for my taste. It feels like being in the office. I know that the pressure is on to convert to energy saving mercury-laden bulbs, but I'm still having a problem with it. Maybe it's just me. It doesn't feel homey. Maybe others like it...I don't know. Personally, I still enjoy the warm, cozy glow of an incandescent bulb. To each his own. I just turn the lights out and open the window.I would recommend this property without hesitation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r135450980-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>135450980</t>
+  </si>
+  <si>
+    <t>07/26/2012</t>
+  </si>
+  <si>
+    <t>Nice Clean, Free Breakfast, Jacuzzi</t>
+  </si>
+  <si>
+    <t>Nice, clean, breakfast- pancakes, sausage, eggs, toast, juice coffee etc.Manager, Nicole was nice.However, if you book from Hotwire you will likely be  given a bed with king size and will have to pay extra if you want 2 queen beds.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r129433069-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129433069</t>
+  </si>
+  <si>
+    <t>05/05/2012</t>
+  </si>
+  <si>
+    <t>An Excellent stay.</t>
+  </si>
+  <si>
+    <t>An excellent stay! Ivory was extremly helpful in finding places to eat, times to be on the freeway that would not be stressful, and she is an overall great person.  The rooms are large and very comfortable. The amenities were plentifull. The shower and bath area was clean and prestine. If I had to come back to this area I would stay here. The breakfast was good and hot also. :-)MoreShow less</t>
+  </si>
+  <si>
+    <t>HOUJC, General Manager at Holiday Inn Express &amp; Suites Houston East, responded to this reviewResponded May 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2012</t>
+  </si>
+  <si>
+    <t>An excellent stay! Ivory was extremly helpful in finding places to eat, times to be on the freeway that would not be stressful, and she is an overall great person.  The rooms are large and very comfortable. The amenities were plentifull. The shower and bath area was clean and prestine. If I had to come back to this area I would stay here. The breakfast was good and hot also. :-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r116366897-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>116366897</t>
+  </si>
+  <si>
+    <t>08/06/2011</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>This HIE is very typical of what you will find at most of the brand's properties.  It isn't brand new, but the management has done a good job of keeping things fresh and nice.  The A/C worked well and my room was always cool.  Internet access was wired or wireless, and fast.  The bed was comfortable.  My room had a really big HDTV, with a half dozen or less channels in HD - the rest SD.  Breakfast was your typical HIE, which is identical at just about every location: not bad, but not great (good cinnamon rolls, but eggs are reconstituted and bacon is paper-thin).  The location was perfect for my stay.  You have a movie theater just across the parking lot, many restaurants very close, and easy access from the interstate.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>HOUJC, General Manager at Holiday Inn Express &amp; Suites Houston East, responded to this reviewResponded August 8, 2011</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2011</t>
+  </si>
+  <si>
+    <t>This HIE is very typical of what you will find at most of the brand's properties.  It isn't brand new, but the management has done a good job of keeping things fresh and nice.  The A/C worked well and my room was always cool.  Internet access was wired or wireless, and fast.  The bed was comfortable.  My room had a really big HDTV, with a half dozen or less channels in HD - the rest SD.  Breakfast was your typical HIE, which is identical at just about every location: not bad, but not great (good cinnamon rolls, but eggs are reconstituted and bacon is paper-thin).  The location was perfect for my stay.  You have a movie theater just across the parking lot, many restaurants very close, and easy access from the interstate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r100784456-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>100784456</t>
+  </si>
+  <si>
+    <t>03/19/2011</t>
+  </si>
+  <si>
+    <t>good, Holiday inn Express is usually great</t>
+  </si>
+  <si>
+    <t>weird location behind a tire store but the hotel is more than OKbusiness center restaurants around the hotel nice roomsfree water bottles in your roomgood breakfastMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>HOUJC, Manager at Holiday Inn Express &amp; Suites Houston East, responded to this reviewResponded July 26, 2011</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2011</t>
+  </si>
+  <si>
+    <t>weird location behind a tire store but the hotel is more than OKbusiness center restaurants around the hotel nice roomsfree water bottles in your roomgood breakfastMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r83149968-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>83149968</t>
+  </si>
+  <si>
+    <t>10/12/2010</t>
+  </si>
+  <si>
+    <t>Superb Service and Value For Money</t>
+  </si>
+  <si>
+    <t>I cannot fault this hotel in terms of value for money, cleanliness and quality of service.  The girls who worked on the front desk were super helpful, friendly and courteous - nothing was too much trouble and they were a joy to speak to.  In fact, they went over and above my expectations when my taxi didn't arrive to take me to work and they arranged for their lovely maintenance man to take me in his pick-up - hows that for service that exceeds expectations?!!The rooms were exceptionally clean, the pool was nice and clean too and the housekeeping staff were very friendly and helpful too. The only downside for me was the location - it is in an isolated area and if you don't drive, you have to rely on taxi's which are expensive and don't always arrive on time.  If you are staying there, make sure you go to the Saltgrass Steak House - yum yum!This is a shining example of superior customer service and value for money - well done to all the staff at the hotel - you are fabulous!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>HOUJC, General Manager at Holiday Inn Express &amp; Suites Houston East, responded to this reviewResponded November 3, 2010</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2010</t>
+  </si>
+  <si>
+    <t>I cannot fault this hotel in terms of value for money, cleanliness and quality of service.  The girls who worked on the front desk were super helpful, friendly and courteous - nothing was too much trouble and they were a joy to speak to.  In fact, they went over and above my expectations when my taxi didn't arrive to take me to work and they arranged for their lovely maintenance man to take me in his pick-up - hows that for service that exceeds expectations?!!The rooms were exceptionally clean, the pool was nice and clean too and the housekeeping staff were very friendly and helpful too. The only downside for me was the location - it is in an isolated area and if you don't drive, you have to rely on taxi's which are expensive and don't always arrive on time.  If you are staying there, make sure you go to the Saltgrass Steak House - yum yum!This is a shining example of superior customer service and value for money - well done to all the staff at the hotel - you are fabulous!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r34151354-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>34151354</t>
+  </si>
+  <si>
+    <t>07/07/2009</t>
+  </si>
+  <si>
+    <t>Incredible value. Very helpful staff. Beautiful room.</t>
+  </si>
+  <si>
+    <t>Staff was extremely helpful. The rooms were large, comfortable, very clean, and attractive. Amenities-including fitness room, pool, and sauna were very well-maintained.The inclusive breakfast had a wide variety of choices.I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>HOUJC, Manager at Holiday Inn Express &amp; Suites Houston East, responded to this reviewResponded June 7, 2010</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2010</t>
+  </si>
+  <si>
+    <t>Staff was extremely helpful. The rooms were large, comfortable, very clean, and attractive. Amenities-including fitness room, pool, and sauna were very well-maintained.The inclusive breakfast had a wide variety of choices.I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r7631436-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>7631436</t>
+  </si>
+  <si>
+    <t>05/15/2007</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for the Houston Kingwood basketball classic (April20-23 2007).  Needless to say, I was traveling with 9 boys and about 15 parents and siblings.  We were able to secure a group rate before we got there.  We arrieved early and check in was a breeze and the staff were very accomadating.  The hotel is right off the express way and is next to a movie theatre and workout center, that can be used by the hotel guest for free.  The hotel has a gym, with 3 machines.The hotel is very clean, the queen size beds were great and the pillows as well,  The bathroom was very big.  I have stayed in several HI Express and they the same.  The location was great, the staff was knowlegdeable about the area.We would definately stay at this hotel again if needed.We aslo stayed at the HI Express off the Belt way: 1330 N. SAM HOUSTON PKWY E: and the expreience was the sam.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for the Houston Kingwood basketball classic (April20-23 2007).  Needless to say, I was traveling with 9 boys and about 15 parents and siblings.  We were able to secure a group rate before we got there.  We arrieved early and check in was a breeze and the staff were very accomadating.  The hotel is right off the express way and is next to a movie theatre and workout center, that can be used by the hotel guest for free.  The hotel has a gym, with 3 machines.The hotel is very clean, the queen size beds were great and the pillows as well,  The bathroom was very big.  I have stayed in several HI Express and they the same.  The location was great, the staff was knowlegdeable about the area.We would definately stay at this hotel again if needed.We aslo stayed at the HI Express off the Belt way: 1330 N. SAM HOUSTON PKWY E: and the expreience was the sam.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r4594854-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>4594854</t>
+  </si>
+  <si>
+    <t>03/07/2006</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>This hotel is in a convenient location. It is close to downtown. The room was unlike any other average hotel room. It was extremely spacious, comfortable, and clean. When you walk into the room, you will definately be surprised by what you are getting for the price. Definately worth the money.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is in a convenient location. It is close to downtown. The room was unlike any other average hotel room. It was extremely spacious, comfortable, and clean. When you walk into the room, you will definately be surprised by what you are getting for the price. Definately worth the money.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1282,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1314,2162 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>108</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>109</v>
+      </c>
+      <c r="X10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>118</v>
+      </c>
+      <c r="X11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>108</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>126</v>
+      </c>
+      <c r="X12" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>135</v>
+      </c>
+      <c r="X13" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" t="s">
+        <v>142</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>143</v>
+      </c>
+      <c r="O14" t="s">
+        <v>108</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>144</v>
+      </c>
+      <c r="X14" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>148</v>
+      </c>
+      <c r="J15" t="s">
+        <v>149</v>
+      </c>
+      <c r="K15" t="s">
+        <v>150</v>
+      </c>
+      <c r="L15" t="s">
+        <v>151</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>143</v>
+      </c>
+      <c r="O15" t="s">
+        <v>108</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>144</v>
+      </c>
+      <c r="X15" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>154</v>
+      </c>
+      <c r="J16" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" t="s">
+        <v>156</v>
+      </c>
+      <c r="L16" t="s">
+        <v>157</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>158</v>
+      </c>
+      <c r="X16" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>162</v>
+      </c>
+      <c r="J17" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17" t="s">
+        <v>164</v>
+      </c>
+      <c r="L17" t="s">
+        <v>165</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>166</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>167</v>
+      </c>
+      <c r="X17" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>171</v>
+      </c>
+      <c r="J18" t="s">
+        <v>172</v>
+      </c>
+      <c r="K18" t="s">
+        <v>173</v>
+      </c>
+      <c r="L18" t="s">
+        <v>174</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>175</v>
+      </c>
+      <c r="X18" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>179</v>
+      </c>
+      <c r="J19" t="s">
+        <v>180</v>
+      </c>
+      <c r="K19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L19" t="s">
+        <v>182</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>183</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>184</v>
+      </c>
+      <c r="X19" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>188</v>
+      </c>
+      <c r="J20" t="s">
+        <v>189</v>
+      </c>
+      <c r="K20" t="s">
+        <v>190</v>
+      </c>
+      <c r="L20" t="s">
+        <v>191</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>192</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>194</v>
+      </c>
+      <c r="J21" t="s">
+        <v>195</v>
+      </c>
+      <c r="K21" t="s">
+        <v>196</v>
+      </c>
+      <c r="L21" t="s">
+        <v>197</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>198</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>199</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>200</v>
+      </c>
+      <c r="J22" t="s">
+        <v>201</v>
+      </c>
+      <c r="K22" t="s">
+        <v>202</v>
+      </c>
+      <c r="L22" t="s">
+        <v>203</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>204</v>
+      </c>
+      <c r="O22" t="s">
+        <v>205</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>206</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>207</v>
+      </c>
+      <c r="J23" t="s">
+        <v>208</v>
+      </c>
+      <c r="K23" t="s">
+        <v>209</v>
+      </c>
+      <c r="L23" t="s">
+        <v>210</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>211</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>214</v>
+      </c>
+      <c r="J24" t="s">
+        <v>215</v>
+      </c>
+      <c r="K24" t="s">
+        <v>216</v>
+      </c>
+      <c r="L24" t="s">
+        <v>217</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>218</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>219</v>
+      </c>
+      <c r="J25" t="s">
+        <v>220</v>
+      </c>
+      <c r="K25" t="s">
+        <v>221</v>
+      </c>
+      <c r="L25" t="s">
+        <v>222</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>223</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>224</v>
+      </c>
+      <c r="J26" t="s">
+        <v>225</v>
+      </c>
+      <c r="K26" t="s">
+        <v>226</v>
+      </c>
+      <c r="L26" t="s">
+        <v>227</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>228</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>230</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>231</v>
+      </c>
+      <c r="J27" t="s">
+        <v>232</v>
+      </c>
+      <c r="K27" t="s">
+        <v>233</v>
+      </c>
+      <c r="L27" t="s">
+        <v>234</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>235</v>
+      </c>
+      <c r="O27" t="s">
+        <v>108</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>236</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>237</v>
+      </c>
+      <c r="J28" t="s">
+        <v>238</v>
+      </c>
+      <c r="K28" t="s">
+        <v>239</v>
+      </c>
+      <c r="L28" t="s">
+        <v>240</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>241</v>
+      </c>
+      <c r="X28" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>244</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>245</v>
+      </c>
+      <c r="J29" t="s">
+        <v>246</v>
+      </c>
+      <c r="K29" t="s">
+        <v>247</v>
+      </c>
+      <c r="L29" t="s">
+        <v>248</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>249</v>
+      </c>
+      <c r="O29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>250</v>
+      </c>
+      <c r="X29" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>253</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>254</v>
+      </c>
+      <c r="J30" t="s">
+        <v>255</v>
+      </c>
+      <c r="K30" t="s">
+        <v>256</v>
+      </c>
+      <c r="L30" t="s">
+        <v>257</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>258</v>
+      </c>
+      <c r="O30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>259</v>
+      </c>
+      <c r="X30" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>262</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>263</v>
+      </c>
+      <c r="J31" t="s">
+        <v>264</v>
+      </c>
+      <c r="K31" t="s">
+        <v>265</v>
+      </c>
+      <c r="L31" t="s">
+        <v>266</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>267</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>268</v>
+      </c>
+      <c r="X31" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>271</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>272</v>
+      </c>
+      <c r="J32" t="s">
+        <v>273</v>
+      </c>
+      <c r="K32" t="s">
+        <v>274</v>
+      </c>
+      <c r="L32" t="s">
+        <v>275</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>276</v>
+      </c>
+      <c r="X32" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>279</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>280</v>
+      </c>
+      <c r="J33" t="s">
+        <v>281</v>
+      </c>
+      <c r="K33" t="s">
+        <v>282</v>
+      </c>
+      <c r="L33" t="s">
+        <v>283</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>276</v>
+      </c>
+      <c r="X33" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>285</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>286</v>
+      </c>
+      <c r="J34" t="s">
+        <v>287</v>
+      </c>
+      <c r="K34" t="s">
+        <v>288</v>
+      </c>
+      <c r="L34" t="s">
+        <v>289</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>276</v>
+      </c>
+      <c r="X34" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_322.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_322.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="450">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/10/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r586535716-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>559491</t>
+  </si>
+  <si>
+    <t>586535716</t>
+  </si>
+  <si>
+    <t>06/10/2018</t>
+  </si>
+  <si>
+    <t>Overnight Stay</t>
+  </si>
+  <si>
+    <t>Nice hotel. Chili's is next door and Pappadeaux Seafood is a short drive away. Walmart is less than 3 miles away. Free parking and comp breakfast. Staff was kind, plenty of room lighting and plugs. Pleased!</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r567585906-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567585906</t>
+  </si>
+  <si>
+    <t>03/19/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tx2k18/Houston trip </t>
+  </si>
+  <si>
+    <t>Had a standard room 2 king size bed (room 219) super big and very clean!! We were impressed they look highly new! Easy check in check out ! Was allowed to check in earlier than 3pm. Hot Breakfast was nice! There’s a pool but didn’t use it. Easy way to Highway! Not very far from our destinations! Movie theater and restaurants around it /walking distance! We paid $266 for two weekend nights! I would definitely stay again!</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r581092987-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>559491</t>
-  </si>
-  <si>
     <t>581092987</t>
   </si>
   <si>
@@ -192,9 +234,6 @@
     <t>It’s exactly what you would expect from a Holiday Inn Express; nice clean and comfortable rooms. “I stayed at a Holiday Inn Express” certainly applies to this as I slept very comfortably. The bed is a little firm for my taste, but I was able to find a pillow I could relax with.The parking is a little sparse if the hotel fills up or somebody parks their large duelly truck with trailers. The breakfast is nothing special, but it serves the purpose; as does the fitness center.If you are wanting to be right down in the action of downtown, this is not the hotel for you; but if you don’t mind a bit of commute, this hotel works perfectly.MoreShow less</t>
   </si>
   <si>
-    <t>March 2018</t>
-  </si>
-  <si>
     <t>It’s exactly what you would expect from a Holiday Inn Express; nice clean and comfortable rooms. “I stayed at a Holiday Inn Express” certainly applies to this as I slept very comfortably. The bed is a little firm for my taste, but I was able to find a pillow I could relax with.The parking is a little sparse if the hotel fills up or somebody parks their large duelly truck with trailers. The breakfast is nothing special, but it serves the purpose; as does the fitness center.If you are wanting to be right down in the action of downtown, this is not the hotel for you; but if you don’t mind a bit of commute, this hotel works perfectly.More</t>
   </si>
   <si>
@@ -216,6 +255,59 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r543658510-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>543658510</t>
+  </si>
+  <si>
+    <t>11/27/2017</t>
+  </si>
+  <si>
+    <t>Hurricane Aftermath</t>
+  </si>
+  <si>
+    <t>I stayed here twice; the first time was the first week in October, and the second time was the first two weeks in November.  
+The first time, the lowest level of the hotel had been hit hard by flooding, though the business center and dining area were useable, the laundry and gym were not.  One elevator was out of use as well.  I stayed on the third floor, and found my room to be clean and inviting.  The desk clerks were happy to point me in the direction of local restaurants and were friendly and professional, even though their hotel wasn't functioning as usual.
+The second time, repairs were underway, with headway being made on the first floor rooms.  The laundry and gym were still under construction, but the elevator did get fixed a few days before I left.  I was on the second floor this time, and again, my room was clean and inviting every day when I arrived after work.
+Arron, the desk clerk I saw most often, was great.  He greeted me each day on my way in/out and suggested some great places to eat.  
+If I were to have a complaint, then it would be the towels.  There is a card in the bathroom asking guests to reuse their towels by hanging them up, and as I was staying for 1-2 weeks at a time, I did hang my towel, but each day I was given...I stayed here twice; the first time was the first week in October, and the second time was the first two weeks in November.  The first time, the lowest level of the hotel had been hit hard by flooding, though the business center and dining area were useable, the laundry and gym were not.  One elevator was out of use as well.  I stayed on the third floor, and found my room to be clean and inviting.  The desk clerks were happy to point me in the direction of local restaurants and were friendly and professional, even though their hotel wasn't functioning as usual.The second time, repairs were underway, with headway being made on the first floor rooms.  The laundry and gym were still under construction, but the elevator did get fixed a few days before I left.  I was on the second floor this time, and again, my room was clean and inviting every day when I arrived after work.Arron, the desk clerk I saw most often, was great.  He greeted me each day on my way in/out and suggested some great places to eat.  If I were to have a complaint, then it would be the towels.  There is a card in the bathroom asking guests to reuse their towels by hanging them up, and as I was staying for 1-2 weeks at a time, I did hang my towel, but each day I was given new towels, and my used ones were whisked away.  First world problems, I know, but that beautiful snowy owl on the card started looking at me in a very accusing manner and all I could do was shrug and say, Don't look at me!  I'm trying!There really isn't a good view in any direction, as it's located in kind of a strip mall (There is a Chili's and a movie theatre, as well as an Asian buffet, Cold Slab ice cream joint and Goodwill store within 1-2 minute walking distance).MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>I stayed here twice; the first time was the first week in October, and the second time was the first two weeks in November.  
+The first time, the lowest level of the hotel had been hit hard by flooding, though the business center and dining area were useable, the laundry and gym were not.  One elevator was out of use as well.  I stayed on the third floor, and found my room to be clean and inviting.  The desk clerks were happy to point me in the direction of local restaurants and were friendly and professional, even though their hotel wasn't functioning as usual.
+The second time, repairs were underway, with headway being made on the first floor rooms.  The laundry and gym were still under construction, but the elevator did get fixed a few days before I left.  I was on the second floor this time, and again, my room was clean and inviting every day when I arrived after work.
+Arron, the desk clerk I saw most often, was great.  He greeted me each day on my way in/out and suggested some great places to eat.  
+If I were to have a complaint, then it would be the towels.  There is a card in the bathroom asking guests to reuse their towels by hanging them up, and as I was staying for 1-2 weeks at a time, I did hang my towel, but each day I was given...I stayed here twice; the first time was the first week in October, and the second time was the first two weeks in November.  The first time, the lowest level of the hotel had been hit hard by flooding, though the business center and dining area were useable, the laundry and gym were not.  One elevator was out of use as well.  I stayed on the third floor, and found my room to be clean and inviting.  The desk clerks were happy to point me in the direction of local restaurants and were friendly and professional, even though their hotel wasn't functioning as usual.The second time, repairs were underway, with headway being made on the first floor rooms.  The laundry and gym were still under construction, but the elevator did get fixed a few days before I left.  I was on the second floor this time, and again, my room was clean and inviting every day when I arrived after work.Arron, the desk clerk I saw most often, was great.  He greeted me each day on my way in/out and suggested some great places to eat.  If I were to have a complaint, then it would be the towels.  There is a card in the bathroom asking guests to reuse their towels by hanging them up, and as I was staying for 1-2 weeks at a time, I did hang my towel, but each day I was given new towels, and my used ones were whisked away.  First world problems, I know, but that beautiful snowy owl on the card started looking at me in a very accusing manner and all I could do was shrug and say, Don't look at me!  I'm trying!There really isn't a good view in any direction, as it's located in kind of a strip mall (There is a Chili's and a movie theatre, as well as an Asian buffet, Cold Slab ice cream joint and Goodwill store within 1-2 minute walking distance).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r541179647-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>541179647</t>
+  </si>
+  <si>
+    <t>11/15/2017</t>
+  </si>
+  <si>
+    <t>Homework first...</t>
+  </si>
+  <si>
+    <t>Some things can’t be fixed, but this hotel is REALLY close to railroad tracks.  Yes....they do go at ALL hours!  I will not stay here again for that main reason.  The front staff needs a MAJOR customer service overhaul!!  There were 3 staff on a Tuesday morning/afternoon, while I was coming &amp; going, not ONE of them said anything to me.  Not just that day, but other days as well. Other than the movie theater &amp; Chili’s there isn’t really any place to walk &amp; shop.I have also noticed that as they are remodeling there are no bathtubs, just a shower.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston East, responded to this reviewResponded November 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2017</t>
+  </si>
+  <si>
+    <t>Some things can’t be fixed, but this hotel is REALLY close to railroad tracks.  Yes....they do go at ALL hours!  I will not stay here again for that main reason.  The front staff needs a MAJOR customer service overhaul!!  There were 3 staff on a Tuesday morning/afternoon, while I was coming &amp; going, not ONE of them said anything to me.  Not just that day, but other days as well. Other than the movie theater &amp; Chili’s there isn’t really any place to walk &amp; shop.I have also noticed that as they are remodeling there are no bathtubs, just a shower.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r504341596-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -285,6 +377,62 @@
     <t>I was told all about how Houston can have rough areas. This hotel, however, was in a decant area. I did not have any issues during my extended stay. The hotel essentially shares an area with a movie theater, Chili's Restaurant, and some other businesses. The rooms are newly renovated, and overall the appearance of the hotel is nice. The complimentary breakfast is pretty good. The only reason I did not give this location 5 stars is because of the staff. When I first arrived on a Friday around 5:30pm I had to wait for several minutes and had to yell to the back office to be serviced. Additionally, the fitness center was 84 degrees so I asked the front desk to turn down the thermostat (there was a lock box over it) and the front desk employee rudely stated she had never done that before and that she "guessed she would have to figure it out." I didn't experience the southern hospitality with the staff, but the hotel is a nice place to stay if you're in the area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r380629951-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>380629951</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>50th Birthday Bash</t>
+  </si>
+  <si>
+    <t>Unfortunately i am unable to rate this property due to an issue we experienced before i arrived on the morning of June 5, 2016 please allow me to explain:
+My partner of 25-yrs is an employee of IHG at a Candlewood Suites. He placed a reservation for us 1-month ago as we were attending a friends 50th birthday bash. Since another employee called off he being the overnight MOD "manager-on-duty" being that another employee called off he had to work that shift &amp; he sent me on to attend the event at 1-pm &amp; he would drive in later after 9-pm. So he faxed authorization to the property to allow me to check-in 1st as this is the protocol per IHG policies &amp; as instructed by his G.M &amp; the Owner of our Candlewood. Within 5-minutes of faxing he received a phone call from the property in east Houston, a lady's name of Ashley who advised she was the overnight MOD there, &amp; she was puzzled what the fax was for. Manny my business partner explained the situation. &amp; Ashley told him: Oh No Sir, he will not be allowed to check-in, only you can. After a short argument, Manny then asked her politely to then change it to Friends &amp; Family Rate, then you MUST allow him to check-in, &amp; Ashley replied, No Sir, the F&amp;F rate is forbidden here. He didn't feel that she was acting in IHG...Unfortunately i am unable to rate this property due to an issue we experienced before i arrived on the morning of June 5, 2016 please allow me to explain:My partner of 25-yrs is an employee of IHG at a Candlewood Suites. He placed a reservation for us 1-month ago as we were attending a friends 50th birthday bash. Since another employee called off he being the overnight MOD "manager-on-duty" being that another employee called off he had to work that shift &amp; he sent me on to attend the event at 1-pm &amp; he would drive in later after 9-pm. So he faxed authorization to the property to allow me to check-in 1st as this is the protocol per IHG policies &amp; as instructed by his G.M &amp; the Owner of our Candlewood. Within 5-minutes of faxing he received a phone call from the property in east Houston, a lady's name of Ashley who advised she was the overnight MOD there, &amp; she was puzzled what the fax was for. Manny my business partner explained the situation. &amp; Ashley told him: Oh No Sir, he will not be allowed to check-in, only you can. After a short argument, Manny then asked her politely to then change it to Friends &amp; Family Rate, then you MUST allow him to check-in, &amp; Ashley replied, No Sir, the F&amp;F rate is forbidden here. He didn't feel that she was acting in IHG Protocol so keeping his cool, he kindly advised her too just Cancel the reservation &amp; we will rebook with one if our other sister properties that will be complaint with policies &amp; he hung up. (we own other flags "brans" &amp; booked about 5-miles further down &amp; checked-in without any issues) MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Ketan P, General Manager at Holiday Inn Express &amp; Suites Houston East, responded to this reviewResponded June 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2016</t>
+  </si>
+  <si>
+    <t>Unfortunately i am unable to rate this property due to an issue we experienced before i arrived on the morning of June 5, 2016 please allow me to explain:
+My partner of 25-yrs is an employee of IHG at a Candlewood Suites. He placed a reservation for us 1-month ago as we were attending a friends 50th birthday bash. Since another employee called off he being the overnight MOD "manager-on-duty" being that another employee called off he had to work that shift &amp; he sent me on to attend the event at 1-pm &amp; he would drive in later after 9-pm. So he faxed authorization to the property to allow me to check-in 1st as this is the protocol per IHG policies &amp; as instructed by his G.M &amp; the Owner of our Candlewood. Within 5-minutes of faxing he received a phone call from the property in east Houston, a lady's name of Ashley who advised she was the overnight MOD there, &amp; she was puzzled what the fax was for. Manny my business partner explained the situation. &amp; Ashley told him: Oh No Sir, he will not be allowed to check-in, only you can. After a short argument, Manny then asked her politely to then change it to Friends &amp; Family Rate, then you MUST allow him to check-in, &amp; Ashley replied, No Sir, the F&amp;F rate is forbidden here. He didn't feel that she was acting in IHG...Unfortunately i am unable to rate this property due to an issue we experienced before i arrived on the morning of June 5, 2016 please allow me to explain:My partner of 25-yrs is an employee of IHG at a Candlewood Suites. He placed a reservation for us 1-month ago as we were attending a friends 50th birthday bash. Since another employee called off he being the overnight MOD "manager-on-duty" being that another employee called off he had to work that shift &amp; he sent me on to attend the event at 1-pm &amp; he would drive in later after 9-pm. So he faxed authorization to the property to allow me to check-in 1st as this is the protocol per IHG policies &amp; as instructed by his G.M &amp; the Owner of our Candlewood. Within 5-minutes of faxing he received a phone call from the property in east Houston, a lady's name of Ashley who advised she was the overnight MOD there, &amp; she was puzzled what the fax was for. Manny my business partner explained the situation. &amp; Ashley told him: Oh No Sir, he will not be allowed to check-in, only you can. After a short argument, Manny then asked her politely to then change it to Friends &amp; Family Rate, then you MUST allow him to check-in, &amp; Ashley replied, No Sir, the F&amp;F rate is forbidden here. He didn't feel that she was acting in IHG Protocol so keeping his cool, he kindly advised her too just Cancel the reservation &amp; we will rebook with one if our other sister properties that will be complaint with policies &amp; he hung up. (we own other flags "brans" &amp; booked about 5-miles further down &amp; checked-in without any issues) More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r370409206-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>370409206</t>
+  </si>
+  <si>
+    <t>05/05/2016</t>
+  </si>
+  <si>
+    <t>SO LOUD</t>
+  </si>
+  <si>
+    <t>Cannot recommend this hotel. Bed is comfortable, TV is big, AC works well. But it is 20 feet from 1-10 and the rooms facing the highway are INCREDIBLY LOUD. I stay in highway-adjacent Houston hotels all the time, and it is the worst soundproofing I have ever encountered. I left my first room instantly and begged for a room facing away from the road. Fortunately they had one. It then became a pleasant hotel experience. But the simple fact is half of people that stay here each night are paying $150+ to essentially live with 10 wheelers in their bedroom. That is a lousy gamble. Do you want to take it?MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston East, responded to this reviewResponded May 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2016</t>
+  </si>
+  <si>
+    <t>Cannot recommend this hotel. Bed is comfortable, TV is big, AC works well. But it is 20 feet from 1-10 and the rooms facing the highway are INCREDIBLY LOUD. I stay in highway-adjacent Houston hotels all the time, and it is the worst soundproofing I have ever encountered. I left my first room instantly and begged for a room facing away from the road. Fortunately they had one. It then became a pleasant hotel experience. But the simple fact is half of people that stay here each night are paying $150+ to essentially live with 10 wheelers in their bedroom. That is a lousy gamble. Do you want to take it?More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r369873964-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -342,9 +490,6 @@
     <t>January 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Ketan P, General Manager at Holiday Inn Express &amp; Suites Houston East, responded to this reviewResponded January 27, 2016</t>
   </si>
   <si>
@@ -354,6 +499,57 @@
     <t>This will be our third time staying here and many more to come. I forgot to review the 2nd time when they were redoing their front desk area and Nadia was a great help! Very polite and sweet, so I must say it is great to come back a third time an still see a great staff member still here! Still amazed at the 2 kings beds in one room plus space to still have a desk and chair! I hope all holiday inn expresses are doing this. My one dislike is the shower door, while in the shower it kept rolling back open, and that would lead to water getting out so maybe its just my room 319 or the door is heavy...not sure but shower was amazing though. Just don't want that to damage you guys door, plus i forgot to let front desk know......keep up the wonderful hotel...we shall returnMovie theater right behind the hotel, chili's right in front...want a whataburger fix...just drive a mile or two east...by academy, sam's, and walmart....everything you could possibly need is surrounding this wonderful hotelMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r328365381-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>328365381</t>
+  </si>
+  <si>
+    <t>11/22/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place to stay </t>
+  </si>
+  <si>
+    <t>I loved the fact there really are 2 king size beds in the room and a ceiling fan! I realize that they are still doing a renovations on the property but it is going to be great when they are all done.  Our room and been renovated it was modern with nice colors. The breakfast is one of the best we have had at a holiday Inn express. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Ketan P, General Manager at Holiday Inn Express &amp; Suites Houston East, responded to this reviewResponded November 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 25, 2015</t>
+  </si>
+  <si>
+    <t>I loved the fact there really are 2 king size beds in the room and a ceiling fan! I realize that they are still doing a renovations on the property but it is going to be great when they are all done.  Our room and been renovated it was modern with nice colors. The breakfast is one of the best we have had at a holiday Inn express. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r326463584-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>326463584</t>
+  </si>
+  <si>
+    <t>11/13/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place to stay in East Houston </t>
+  </si>
+  <si>
+    <t>This hotel was so much better than I expected. Stopping for the night on a long trip, my husband and I just HAD to get out of I10 traffic and luckily chose this hotel. The staff was so nice, the room was well appointed and clean, shower was fantastic, and the room was surprisingly quiet. The only glitch is the breakfast is mediocre at best, but typical for most hotel chains. One tip I can pass on is if you're going out for the evening and want to take a cab, DO NOT take Yellow Cab. Call Lone Star or Uber. I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ketan P, General Manager at Holiday Inn Express &amp; Suites Houston East, responded to this reviewResponded November 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2015</t>
+  </si>
+  <si>
+    <t>This hotel was so much better than I expected. Stopping for the night on a long trip, my husband and I just HAD to get out of I10 traffic and luckily chose this hotel. The staff was so nice, the room was well appointed and clean, shower was fantastic, and the room was surprisingly quiet. The only glitch is the breakfast is mediocre at best, but typical for most hotel chains. One tip I can pass on is if you're going out for the evening and want to take a cab, DO NOT take Yellow Cab. Call Lone Star or Uber. I would definitely stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r314933455-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -432,6 +628,51 @@
     <t>Don't be fooled by the glossy photo images on the website, the reality is quite different. Upon arriving at this hotel, first impressions were scary. It is situated in a relatively industrial area of Houston. Although there is external refurbishment on-going, it will take quite some work to spruce the looks of this hotel up. The reception is and was welcoming by the Hispanic staff, who were faultless.The rooms are very, very good; solid furniture, excellent bed and extremely clean, continuously. Bathroom facilities were excellent too. The restaurant was basic although provided fresh and tasty food. Other facilities; gym, Jacuzzi, laundry, were simple but effective. However, the swimming pool was more like a septic tank! Advised not to walk or drive alone in this area........worrying.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r290431636-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>290431636</t>
+  </si>
+  <si>
+    <t>07/19/2015</t>
+  </si>
+  <si>
+    <t>Very clean and courteous staff!</t>
+  </si>
+  <si>
+    <t>First off the front desk person (muñeca) was awesome! Only one who baked cookies whenever she was there, my kids loved it.  Secondly the cleaning staff (esmeralda) was incredibly detailed when she cleaned our room. My daughter's stuffed animal was lovingly placed on the bed for her arrival. She also placed our toiletries and toothbrushes neatly  on counter. I appreciate the details and praise her efforts to make it feel Like home. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Mguru367, General Manager at Holiday Inn Express &amp; Suites Houston East, responded to this reviewResponded July 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2015</t>
+  </si>
+  <si>
+    <t>First off the front desk person (muñeca) was awesome! Only one who baked cookies whenever she was there, my kids loved it.  Secondly the cleaning staff (esmeralda) was incredibly detailed when she cleaned our room. My daughter's stuffed animal was lovingly placed on the bed for her arrival. She also placed our toiletries and toothbrushes neatly  on counter. I appreciate the details and praise her efforts to make it feel Like home. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r289839975-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>289839975</t>
+  </si>
+  <si>
+    <t>07/17/2015</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>One of the worst hotel I've been to. Very noisy. Train nearby is using horn at any time, waking you up in the middle of the night. Rooms are not clean. There are Cockroaches in. Staff is not very friendly. I really don't recommend this hotel to anybody.MoreShow less</t>
+  </si>
+  <si>
+    <t>One of the worst hotel I've been to. Very noisy. Train nearby is using horn at any time, waking you up in the middle of the night. Rooms are not clean. There are Cockroaches in. Staff is not very friendly. I really don't recommend this hotel to anybody.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r286050617-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -447,9 +688,6 @@
     <t>This hotel was very nice and well kempt. The hotel staff was friendly upon checkin and throughout our stay. Breakfast was good. Bed was very comfy and that shower stall is amazing. Love the rain shower head. Overall our stay was nice and for one night not too bad to find at all. That's why I give this hotel 5 stars.MoreShow less</t>
   </si>
   <si>
-    <t>July 2015</t>
-  </si>
-  <si>
     <t>Mguru367, General Manager at Holiday Inn Express &amp; Suites Houston East, responded to this reviewResponded July 7, 2015</t>
   </si>
   <si>
@@ -501,6 +739,48 @@
     <t>This hotel seems quite new. The rooms are big with comfortable beds and a flat screen TV. The bathroom has a walk-in shower with a rain shower head.My only complaints are that breakfast hours are too limited (6 am to 9 am) and the hotel room doors are not snug in their frames, so a lot of light from the hallway gets into the room.Overall, I would stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r241908438-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>241908438</t>
+  </si>
+  <si>
+    <t>11/28/2014</t>
+  </si>
+  <si>
+    <t>Home Sweet Home</t>
+  </si>
+  <si>
+    <t>Found a great deal online for a 3 night stay over the holiday. Excellent service and very clean rooms. Breakfast buffet is a plus! Could not have been happier with our stay. My wife says we will never stay anywhere else. Not the best part of town, but you wouldn't know it. Thank you for a great experience.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r241556534-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>241556534</t>
+  </si>
+  <si>
+    <t>11/26/2014</t>
+  </si>
+  <si>
+    <t>My back</t>
+  </si>
+  <si>
+    <t>Pros... Great space, nice TV, good decor(I want the desk lamp) area seemed safe, nice staffCons.... Bed was horrible..felt like i was sleeping on a suitcase. My back hurts.Bed killed rating...I've stayed here before and the bed wasn't as bad last time. This time it would have been better if i slept in the chair.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Mguru367, General Manager at Holiday Inn Express &amp; Suites Houston East, responded to this reviewResponded November 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2014</t>
+  </si>
+  <si>
+    <t>Pros... Great space, nice TV, good decor(I want the desk lamp) area seemed safe, nice staffCons.... Bed was horrible..felt like i was sleeping on a suitcase. My back hurts.Bed killed rating...I've stayed here before and the bed wasn't as bad last time. This time it would have been better if i slept in the chair.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r226348456-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -579,6 +859,54 @@
     <t>I was so impressed by this hotel, best place I've stayed in this area!  Hotel is away from the highway and is quiet and clean.  Staff is so very friendly.  Breakfast is hot and includes eggs, omelets, bacon, sausage, cereal, and hot cinnamon rolls.  There is a nice outdoor pool, an indoor hot tub and a small work out room.  Lots of restaurants near by like chilis and salt grass.  Great place!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r203643299-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>203643299</t>
+  </si>
+  <si>
+    <t>05/01/2014</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t>I reluctantly stayed at this location.   What I found was a clean, neat, comfortable hotel room with a good air conditioner,  and hot water for my shower.    The workout facility was in very good condition.    The Cookies and the Breakfast was better than I would have expected.     The only challenge I found was the turn right to get to the hotel off of I-10 was a but quick and I missed it the first time and had to go around the block.Plenty of good restaurants close by so you do not have to go far for a good evening meal.I will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Mguru367, General Manager at Holiday Inn Express &amp; Suites Houston East, responded to this reviewResponded May 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2014</t>
+  </si>
+  <si>
+    <t>I reluctantly stayed at this location.   What I found was a clean, neat, comfortable hotel room with a good air conditioner,  and hot water for my shower.    The workout facility was in very good condition.    The Cookies and the Breakfast was better than I would have expected.     The only challenge I found was the turn right to get to the hotel off of I-10 was a but quick and I missed it the first time and had to go around the block.Plenty of good restaurants close by so you do not have to go far for a good evening meal.I will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r202312896-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>202312896</t>
+  </si>
+  <si>
+    <t>04/22/2014</t>
+  </si>
+  <si>
+    <t>houston job fair</t>
+  </si>
+  <si>
+    <t>Very clean. Like the fact that there is security. Rooms are spacious, clean and comfortable. A great place to go after a long hard day. The location was perfect for for the business I had in Houston. Keep up the good job.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Very clean. Like the fact that there is security. Rooms are spacious, clean and comfortable. A great place to go after a long hard day. The location was perfect for for the business I had in Houston. Keep up the good job.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r201945023-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -594,9 +922,6 @@
     <t xml:space="preserve">Hotel is a decent HI Express in a predominantly industrial area... Great if you need to work on that side of town. Chili's in the common parking lot, along with nearby Saltgrass and Pappas Seafood make for some of the better dining options nearby. Rooms are very spacious and the staff are always very courteous. </t>
   </si>
   <si>
-    <t>April 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r197224082-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -612,9 +937,6 @@
     <t>This is an excellent hotel is you are working in the area or visiting family in the area.   It is located in a primarliy working class area east of Houston, so I don't see why anyone would vacation here.  But, if you are working here, no problem.  Restaurants are plentiful nearby.  Friends have stayed in trendier areas, but are driving 30-45 minutes to our place of business.   There is nothing at a mall here that I can't get at a mall at home, so I prefer the 5-10 minute drive.Rooms are clean and well serviced.  Cookies in the evening, wonderful breakfast in the morning.</t>
   </si>
   <si>
-    <t>March 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r194333329-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -633,7 +955,43 @@
     <t>February 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r194205496-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>194205496</t>
+  </si>
+  <si>
+    <t>02/15/2014</t>
+  </si>
+  <si>
+    <t>Oké</t>
+  </si>
+  <si>
+    <t>It's okay,  typical American to much airco, room is good but freezing cold. It's far from anything interesting.  Close to the airport. The in house restaurant is oké,  food is good,  service is good. That's allMoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston East, responded to this reviewResponded March 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2014</t>
+  </si>
+  <si>
+    <t>It's okay,  typical American to much airco, room is good but freezing cold. It's far from anything interesting.  Close to the airport. The in house restaurant is oké,  food is good,  service is good. That's allMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r182261541-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>182261541</t>
+  </si>
+  <si>
+    <t>10/24/2013</t>
+  </si>
+  <si>
+    <t>Great hotel, in a rough area</t>
+  </si>
+  <si>
+    <t>Kuwana is the greatest, very helpful and genuinely concerned with the overall experience with the hotel, she is a great part of the hotel success in my eyes.  The jacuzzi was. It working during my stay, other than that it was perfect.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r178624633-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
@@ -687,6 +1045,39 @@
     <t>This is my third visit. I travel quite often to the greater Houston area and this particular holiday is by far superior. The staff is excellent. The location is easily within my area if work and the restaurant has kept this place top of mind; a relaxed environment; great food. The staff in the restaurant is top notch. I go out if my way to stay here. The people make the difference. The food is terrific. I recommend it highly.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r163369219-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>163369219</t>
+  </si>
+  <si>
+    <t>06/08/2013</t>
+  </si>
+  <si>
+    <t>If you end up in Houston for work....</t>
+  </si>
+  <si>
+    <t>Really a great little hotel. Totally helpful staff, big clean well furnished rooms and a location to be able to walk to a few restaurants. Perfect for a short business trip although it's out of the main town of Houston. Easy access to freeway.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r156833235-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>156833235</t>
+  </si>
+  <si>
+    <t>04/06/2013</t>
+  </si>
+  <si>
+    <t>Surprised at the price</t>
+  </si>
+  <si>
+    <t>We stopped off the road at this facility.  The manager on duty quoted us a price for our room.  When we said no and were about to leave, he gave us a "negotiated deal" on our room charge, which we accepted.  However, when I checked the room price for our category on the website, and it was $5 less than we were charged.  Some deal!!!   However, the room was pleasant and clean, and the breakfast was wonderful.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r147557468-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -750,6 +1141,54 @@
     <t>An excellent stay! Ivory was extremly helpful in finding places to eat, times to be on the freeway that would not be stressful, and she is an overall great person.  The rooms are large and very comfortable. The amenities were plentifull. The shower and bath area was clean and prestine. If I had to come back to this area I would stay here. The breakfast was good and hot also. :-)More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r126985781-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>126985781</t>
+  </si>
+  <si>
+    <t>03/30/2012</t>
+  </si>
+  <si>
+    <t>Big room</t>
+  </si>
+  <si>
+    <t>The address is 114601 I10 E, Houston Texas. Its hard to tell if you have the correct one when there are 10 to choose from, The one we stayed at was nice , clean, big room, we had supper at CiCi's pizza just a stone throw from the hotel. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>The address is 114601 I10 E, Houston Texas. Its hard to tell if you have the correct one when there are 10 to choose from, The one we stayed at was nice , clean, big room, we had supper at CiCi's pizza just a stone throw from the hotel. I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r121079886-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>121079886</t>
+  </si>
+  <si>
+    <t>11/27/2011</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
+  </si>
+  <si>
+    <t>We were traveling from Austin to Florida for Thanksgiving, booking hotels along the way as we got tired of driving. Our first stay was in Houston at the Holiday Inn Express, Houston East along I-10.  It was wonderful. The room was clean, bathroom was clean, linens were clean. The bed was new enough to not be lumpy. The free breakfast was good and plentiful. Out of all the hotels we stayed at on our trip (4), this was by far the best one.  We didn't stay at another Holiday Inn Express on our trip, but the next time we go to Florida, we will be actively looking for them.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>HOUJC, General Manager at Holiday Inn Express &amp; Suites Houston East, responded to this reviewResponded November 28, 2011</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2011</t>
+  </si>
+  <si>
+    <t>We were traveling from Austin to Florida for Thanksgiving, booking hotels along the way as we got tired of driving. Our first stay was in Houston at the Holiday Inn Express, Houston East along I-10.  It was wonderful. The room was clean, bathroom was clean, linens were clean. The bed was new enough to not be lumpy. The free breakfast was good and plentiful. Out of all the hotels we stayed at on our trip (4), this was by far the best one.  We didn't stay at another Holiday Inn Express on our trip, but the next time we go to Florida, we will be actively looking for them.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r116366897-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -831,6 +1270,60 @@
     <t>I cannot fault this hotel in terms of value for money, cleanliness and quality of service.  The girls who worked on the front desk were super helpful, friendly and courteous - nothing was too much trouble and they were a joy to speak to.  In fact, they went over and above my expectations when my taxi didn't arrive to take me to work and they arranged for their lovely maintenance man to take me in his pick-up - hows that for service that exceeds expectations?!!The rooms were exceptionally clean, the pool was nice and clean too and the housekeeping staff were very friendly and helpful too. The only downside for me was the location - it is in an isolated area and if you don't drive, you have to rely on taxi's which are expensive and don't always arrive on time.  If you are staying there, make sure you go to the Saltgrass Steak House - yum yum!This is a shining example of superior customer service and value for money - well done to all the staff at the hotel - you are fabulous!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r73948452-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>73948452</t>
+  </si>
+  <si>
+    <t>08/05/2010</t>
+  </si>
+  <si>
+    <t>Great for a Stop-Over</t>
+  </si>
+  <si>
+    <t>We stayed one night on our way to San Antonio. It appears new, very clean, and comfortable. To our surprise, the room was very large with two queen beds. The breakfast was ok (free so no complaints), had several items to select from. Would look to stay again at this hotel while visiting Houston or as a stay-over again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>HOUJC, Manager at Holiday Inn Express &amp; Suites Houston East, responded to this reviewResponded September 16, 2010</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2010</t>
+  </si>
+  <si>
+    <t>We stayed one night on our way to San Antonio. It appears new, very clean, and comfortable. To our surprise, the room was very large with two queen beds. The breakfast was ok (free so no complaints), had several items to select from. Would look to stay again at this hotel while visiting Houston or as a stay-over again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r37518670-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>37518670</t>
+  </si>
+  <si>
+    <t>08/12/2009</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>After fighting the Houston traffic, most travelers are glad to be off the freeway.  Upon arrival, I was greeted by very friendly staff members.  Lobby is very nice and rooms are great.  Restaurants are close- you can even walk to Chili's if you don't want to get back in the car. Very pleased with stay!   (:MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>HOUJC, Manager at Holiday Inn Express &amp; Suites Houston East, responded to this reviewResponded June 7, 2010</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2010</t>
+  </si>
+  <si>
+    <t>After fighting the Houston traffic, most travelers are glad to be off the freeway.  Upon arrival, I was greeted by very friendly staff members.  Lobby is very nice and rooms are great.  Restaurants are close- you can even walk to Chili's if you don't want to get back in the car. Very pleased with stay!   (:More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d559491-r34151354-Holiday_Inn_Express_Suites_Houston_East-Houston_Texas.html</t>
   </si>
   <si>
@@ -844,12 +1337,6 @@
   </si>
   <si>
     <t>Staff was extremely helpful. The rooms were large, comfortable, very clean, and attractive. Amenities-including fitness room, pool, and sauna were very well-maintained.The inclusive breakfast had a wide variety of choices.I would definitely stay here again.MoreShow less</t>
-  </si>
-  <si>
-    <t>HOUJC, Manager at Holiday Inn Express &amp; Suites Houston East, responded to this reviewResponded June 7, 2010</t>
-  </si>
-  <si>
-    <t>Responded June 7, 2010</t>
   </si>
   <si>
     <t>Staff was extremely helpful. The rooms were large, comfortable, very clean, and attractive. Amenities-including fitness room, pool, and sauna were very well-maintained.The inclusive breakfast had a wide variety of choices.I would definitely stay here again.More</t>
@@ -1433,8 +1920,12 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
         <v>4</v>
@@ -1482,13 +1973,13 @@
         <v>57</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>58</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1502,7 +1993,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -1545,19 +2036,15 @@
         <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>2</v>
-      </c>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1581,34 +2068,34 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" t="s">
         <v>66</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J5" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" t="s">
-        <v>69</v>
-      </c>
-      <c r="L5" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>71</v>
-      </c>
-      <c r="O5" t="s">
-        <v>52</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1619,14 +2106,10 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
         <v>72</v>
-      </c>
-      <c r="X5" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -1642,46 +2125,46 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
         <v>75</v>
       </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>76</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>77</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>78</v>
       </c>
-      <c r="L6" t="s">
-        <v>79</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>80</v>
-      </c>
       <c r="O6" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s"/>
       <c r="R6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1689,7 +2172,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -1705,46 +2188,46 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
         <v>82</v>
       </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>83</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
         <v>84</v>
       </c>
-      <c r="K7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>87</v>
-      </c>
       <c r="O7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
       <c r="R7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1752,7 +2235,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -1768,52 +2251,50 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
         <v>89</v>
       </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>90</v>
       </c>
-      <c r="J8" t="s">
-        <v>91</v>
-      </c>
-      <c r="K8" t="s">
-        <v>92</v>
-      </c>
-      <c r="L8" t="s">
-        <v>93</v>
-      </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
-      <c r="R8" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>4</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>91</v>
+      </c>
+      <c r="X8" t="s">
+        <v>92</v>
+      </c>
       <c r="Y8" t="s">
         <v>93</v>
       </c>
@@ -1831,34 +2312,34 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
         <v>95</v>
       </c>
-      <c r="G9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>96</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>97</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>98</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
         <v>99</v>
       </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>100</v>
-      </c>
       <c r="O9" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1869,10 +2350,14 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>100</v>
+      </c>
+      <c r="X9" t="s">
+        <v>101</v>
+      </c>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
@@ -1888,7 +2373,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1897,43 +2382,45 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O10" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
         <v>109</v>
-      </c>
-      <c r="X10" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="11">
@@ -1949,52 +2436,54 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
         <v>112</v>
       </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>113</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>114</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
         <v>115</v>
       </c>
-      <c r="L11" t="s">
-        <v>116</v>
-      </c>
-      <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s">
-        <v>117</v>
-      </c>
       <c r="O11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>118</v>
-      </c>
-      <c r="X11" t="s">
-        <v>119</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
@@ -2010,56 +2499,52 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s">
         <v>121</v>
       </c>
-      <c r="G12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>115</v>
+      </c>
+      <c r="O12" t="s">
         <v>122</v>
-      </c>
-      <c r="J12" t="s">
-        <v>123</v>
-      </c>
-      <c r="K12" t="s">
-        <v>124</v>
-      </c>
-      <c r="L12" t="s">
-        <v>125</v>
-      </c>
-      <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="s">
-        <v>117</v>
-      </c>
-      <c r="O12" t="s">
-        <v>108</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="X12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Y12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
@@ -2075,58 +2560,58 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s">
         <v>129</v>
       </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
         <v>130</v>
-      </c>
-      <c r="J13" t="s">
-        <v>131</v>
-      </c>
-      <c r="K13" t="s">
-        <v>132</v>
-      </c>
-      <c r="L13" t="s">
-        <v>133</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
-      </c>
-      <c r="P13" t="n">
+        <v>66</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
         <v>2</v>
       </c>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
       <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="X13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Y13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
@@ -2142,52 +2627,54 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s">
         <v>138</v>
       </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="L14" t="s">
         <v>139</v>
       </c>
-      <c r="J14" t="s">
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
         <v>140</v>
       </c>
-      <c r="K14" t="s">
-        <v>141</v>
-      </c>
-      <c r="L14" t="s">
-        <v>142</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>143</v>
-      </c>
       <c r="O14" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>144</v>
-      </c>
-      <c r="X14" t="s">
-        <v>145</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15">
@@ -2203,34 +2690,34 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" t="s">
+        <v>144</v>
+      </c>
+      <c r="L15" t="s">
+        <v>145</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>146</v>
+      </c>
+      <c r="O15" t="s">
         <v>147</v>
-      </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" t="s">
-        <v>148</v>
-      </c>
-      <c r="J15" t="s">
-        <v>149</v>
-      </c>
-      <c r="K15" t="s">
-        <v>150</v>
-      </c>
-      <c r="L15" t="s">
-        <v>151</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>143</v>
-      </c>
-      <c r="O15" t="s">
-        <v>108</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2241,14 +2728,10 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>144</v>
-      </c>
-      <c r="X15" t="s">
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
         <v>145</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="16">
@@ -2264,31 +2747,35 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>153</v>
       </c>
-      <c r="G16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" t="s">
-        <v>154</v>
-      </c>
-      <c r="J16" t="s">
-        <v>155</v>
-      </c>
-      <c r="K16" t="s">
-        <v>156</v>
-      </c>
-      <c r="L16" t="s">
-        <v>157</v>
-      </c>
-      <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
@@ -2299,13 +2786,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="X16" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Y16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
@@ -2321,58 +2808,52 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>158</v>
+      </c>
+      <c r="J17" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" t="s">
         <v>161</v>
       </c>
-      <c r="G17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
         <v>162</v>
-      </c>
-      <c r="J17" t="s">
-        <v>163</v>
-      </c>
-      <c r="K17" t="s">
-        <v>164</v>
-      </c>
-      <c r="L17" t="s">
-        <v>165</v>
-      </c>
-      <c r="M17" t="n">
-        <v>4</v>
-      </c>
-      <c r="N17" t="s">
-        <v>166</v>
       </c>
       <c r="O17" t="s">
         <v>52</v>
       </c>
-      <c r="P17" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>4</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="X17" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Y17" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18">
@@ -2388,31 +2869,35 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>167</v>
+      </c>
+      <c r="J18" t="s">
+        <v>168</v>
+      </c>
+      <c r="K18" t="s">
+        <v>169</v>
+      </c>
+      <c r="L18" t="s">
         <v>170</v>
       </c>
-      <c r="G18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" t="s">
-        <v>171</v>
-      </c>
-      <c r="J18" t="s">
-        <v>172</v>
-      </c>
-      <c r="K18" t="s">
-        <v>173</v>
-      </c>
-      <c r="L18" t="s">
-        <v>174</v>
-      </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
+      <c r="N18" t="s">
+        <v>162</v>
+      </c>
+      <c r="O18" t="s">
+        <v>59</v>
+      </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
@@ -2423,13 +2908,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="X18" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Y18" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19">
@@ -2445,34 +2930,34 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19" t="s">
+        <v>176</v>
+      </c>
+      <c r="K19" t="s">
+        <v>177</v>
+      </c>
+      <c r="L19" t="s">
         <v>178</v>
       </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
         <v>179</v>
       </c>
-      <c r="J19" t="s">
-        <v>180</v>
-      </c>
-      <c r="K19" t="s">
-        <v>181</v>
-      </c>
-      <c r="L19" t="s">
-        <v>182</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>183</v>
-      </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2484,13 +2969,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="X19" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Y19" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
@@ -2506,31 +2991,31 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>184</v>
+      </c>
+      <c r="J20" t="s">
+        <v>185</v>
+      </c>
+      <c r="K20" t="s">
+        <v>186</v>
+      </c>
+      <c r="L20" t="s">
         <v>187</v>
       </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" t="s">
-        <v>188</v>
-      </c>
-      <c r="J20" t="s">
-        <v>189</v>
-      </c>
-      <c r="K20" t="s">
-        <v>190</v>
-      </c>
-      <c r="L20" t="s">
-        <v>191</v>
-      </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="O20" t="s">
         <v>52</v>
@@ -2538,16 +3023,24 @@
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>188</v>
+      </c>
+      <c r="X20" t="s">
+        <v>189</v>
+      </c>
       <c r="Y20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21">
@@ -2563,58 +3056,58 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>192</v>
+      </c>
+      <c r="J21" t="s">
         <v>193</v>
       </c>
-      <c r="G21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>194</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" t="s">
         <v>195</v>
       </c>
-      <c r="K21" t="s">
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
         <v>196</v>
       </c>
-      <c r="L21" t="s">
-        <v>197</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>198</v>
-      </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>4</v>
-      </c>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>197</v>
+      </c>
+      <c r="X21" t="s">
+        <v>198</v>
+      </c>
       <c r="Y21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22">
@@ -2630,7 +3123,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -2639,49 +3132,43 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O22" t="s">
-        <v>205</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>206</v>
+      </c>
+      <c r="X22" t="s">
+        <v>207</v>
+      </c>
       <c r="Y22" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23">
@@ -2697,7 +3184,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -2706,49 +3193,43 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="J23" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K23" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
-      <c r="R23" t="n">
-        <v>4</v>
-      </c>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>197</v>
+      </c>
+      <c r="X23" t="s">
+        <v>198</v>
+      </c>
       <c r="Y23" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24">
@@ -2764,7 +3245,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -2773,45 +3254,43 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J24" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K24" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
-      </c>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>4</v>
-      </c>
-      <c r="R24" t="n">
-        <v>4</v>
-      </c>
-      <c r="S24" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>205</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>220</v>
+      </c>
+      <c r="X24" t="s">
+        <v>221</v>
+      </c>
       <c r="Y24" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25">
@@ -2827,7 +3306,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -2836,45 +3315,43 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="J25" t="s">
+        <v>225</v>
+      </c>
+      <c r="K25" t="s">
+        <v>226</v>
+      </c>
+      <c r="L25" t="s">
+        <v>227</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>205</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
         <v>220</v>
       </c>
-      <c r="K25" t="s">
+      <c r="X25" t="s">
         <v>221</v>
       </c>
-      <c r="L25" t="s">
-        <v>222</v>
-      </c>
-      <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>4</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
-      <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26">
@@ -2890,7 +3367,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -2899,49 +3376,39 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="J26" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K26" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
-      <c r="N26" t="s">
-        <v>228</v>
-      </c>
-      <c r="O26" t="s">
-        <v>52</v>
-      </c>
-      <c r="P26" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>4</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>234</v>
+      </c>
+      <c r="X26" t="s">
+        <v>235</v>
+      </c>
       <c r="Y26" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27">
@@ -2957,7 +3424,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -2966,49 +3433,35 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="J27" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="K27" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="L27" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
-      </c>
-      <c r="N27" t="s">
-        <v>235</v>
-      </c>
-      <c r="O27" t="s">
-        <v>108</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>3</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>4</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28">
@@ -3024,7 +3477,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3033,49 +3486,43 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="J28" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="K28" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="L28" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>247</v>
+      </c>
+      <c r="O28" t="s">
+        <v>122</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="X28" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Y28" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29">
@@ -3091,7 +3538,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3100,43 +3547,49 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="J29" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="K29" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="L29" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="O29" t="s">
-        <v>52</v>
-      </c>
-      <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
       <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="X29" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="Y29" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30">
@@ -3152,7 +3605,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -3161,53 +3614,39 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="J30" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="K30" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
-      <c r="N30" t="s">
-        <v>258</v>
-      </c>
-      <c r="O30" t="s">
-        <v>52</v>
-      </c>
-      <c r="P30" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
-      <c r="R30" t="n">
-        <v>4</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="X30" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Y30" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31">
@@ -3223,7 +3662,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3232,53 +3671,43 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="J31" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="K31" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="L31" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="O31" t="s">
-        <v>52</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>3</v>
-      </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="X31" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Y31" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32">
@@ -3294,7 +3723,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -3303,22 +3732,26 @@
         <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="J32" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="K32" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="L32" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
+      <c r="N32" t="s">
+        <v>282</v>
+      </c>
+      <c r="O32" t="s">
+        <v>66</v>
+      </c>
       <c r="P32" t="n">
         <v>5</v>
       </c>
@@ -3326,7 +3759,7 @@
         <v>5</v>
       </c>
       <c r="R32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -3339,13 +3772,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="X32" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="Y32" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33">
@@ -3361,7 +3794,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -3370,22 +3803,26 @@
         <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="J33" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="K33" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="L33" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
+      <c r="N33" t="s">
+        <v>291</v>
+      </c>
+      <c r="O33" t="s">
+        <v>66</v>
+      </c>
       <c r="P33" t="n">
         <v>5</v>
       </c>
@@ -3406,13 +3843,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="X33" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="Y33" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34">
@@ -3428,7 +3865,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -3437,22 +3874,26 @@
         <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="J34" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="K34" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="L34" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
-      <c r="N34" t="s"/>
-      <c r="O34" t="s"/>
+      <c r="N34" t="s">
+        <v>282</v>
+      </c>
+      <c r="O34" t="s">
+        <v>66</v>
+      </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
@@ -3462,14 +3903,1470 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s">
-        <v>276</v>
-      </c>
-      <c r="X34" t="s">
-        <v>277</v>
-      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>290</v>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>298</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>299</v>
+      </c>
+      <c r="J35" t="s">
+        <v>300</v>
+      </c>
+      <c r="K35" t="s">
+        <v>301</v>
+      </c>
+      <c r="L35" t="s">
+        <v>302</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>291</v>
+      </c>
+      <c r="O35" t="s">
+        <v>66</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>303</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>304</v>
+      </c>
+      <c r="J36" t="s">
+        <v>305</v>
+      </c>
+      <c r="K36" t="s">
+        <v>306</v>
+      </c>
+      <c r="L36" t="s">
+        <v>307</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>308</v>
+      </c>
+      <c r="O36" t="s">
+        <v>59</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>309</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>310</v>
+      </c>
+      <c r="J37" t="s">
+        <v>311</v>
+      </c>
+      <c r="K37" t="s">
+        <v>312</v>
+      </c>
+      <c r="L37" t="s">
+        <v>313</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>308</v>
+      </c>
+      <c r="O37" t="s">
+        <v>66</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>314</v>
+      </c>
+      <c r="X37" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>317</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>318</v>
+      </c>
+      <c r="J38" t="s">
+        <v>319</v>
+      </c>
+      <c r="K38" t="s">
+        <v>320</v>
+      </c>
+      <c r="L38" t="s">
+        <v>321</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>322</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>323</v>
+      </c>
+      <c r="J39" t="s">
+        <v>324</v>
+      </c>
+      <c r="K39" t="s">
+        <v>325</v>
+      </c>
+      <c r="L39" t="s">
+        <v>326</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>327</v>
+      </c>
+      <c r="O39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>329</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>330</v>
+      </c>
+      <c r="J40" t="s">
+        <v>331</v>
+      </c>
+      <c r="K40" t="s">
+        <v>332</v>
+      </c>
+      <c r="L40" t="s">
+        <v>333</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>334</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>335</v>
+      </c>
+      <c r="J41" t="s">
+        <v>336</v>
+      </c>
+      <c r="K41" t="s">
+        <v>337</v>
+      </c>
+      <c r="L41" t="s">
+        <v>338</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>339</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>340</v>
+      </c>
+      <c r="J42" t="s">
+        <v>341</v>
+      </c>
+      <c r="K42" t="s">
+        <v>342</v>
+      </c>
+      <c r="L42" t="s">
+        <v>343</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>344</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>345</v>
+      </c>
+      <c r="J43" t="s">
+        <v>346</v>
+      </c>
+      <c r="K43" t="s">
+        <v>347</v>
+      </c>
+      <c r="L43" t="s">
+        <v>348</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>349</v>
+      </c>
+      <c r="O43" t="s">
+        <v>59</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>350</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>351</v>
+      </c>
+      <c r="J44" t="s">
+        <v>352</v>
+      </c>
+      <c r="K44" t="s">
+        <v>353</v>
+      </c>
+      <c r="L44" t="s">
+        <v>354</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>355</v>
+      </c>
+      <c r="O44" t="s">
+        <v>66</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>357</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>358</v>
+      </c>
+      <c r="J45" t="s">
+        <v>359</v>
+      </c>
+      <c r="K45" t="s">
+        <v>360</v>
+      </c>
+      <c r="L45" t="s">
+        <v>361</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>362</v>
+      </c>
+      <c r="O45" t="s">
+        <v>52</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>363</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>364</v>
+      </c>
+      <c r="J46" t="s">
+        <v>365</v>
+      </c>
+      <c r="K46" t="s">
+        <v>366</v>
+      </c>
+      <c r="L46" t="s">
+        <v>367</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>368</v>
+      </c>
+      <c r="X46" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>371</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>372</v>
+      </c>
+      <c r="J47" t="s">
+        <v>373</v>
+      </c>
+      <c r="K47" t="s">
+        <v>374</v>
+      </c>
+      <c r="L47" t="s">
+        <v>375</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>376</v>
+      </c>
+      <c r="O47" t="s">
+        <v>59</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>368</v>
+      </c>
+      <c r="X47" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>378</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>379</v>
+      </c>
+      <c r="J48" t="s">
+        <v>380</v>
+      </c>
+      <c r="K48" t="s">
+        <v>381</v>
+      </c>
+      <c r="L48" t="s">
+        <v>382</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>383</v>
+      </c>
+      <c r="O48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>384</v>
+      </c>
+      <c r="X48" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>387</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>388</v>
+      </c>
+      <c r="J49" t="s">
+        <v>389</v>
+      </c>
+      <c r="K49" t="s">
+        <v>390</v>
+      </c>
+      <c r="L49" t="s">
+        <v>391</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>392</v>
+      </c>
+      <c r="O49" t="s">
+        <v>66</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>393</v>
+      </c>
+      <c r="X49" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>396</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>397</v>
+      </c>
+      <c r="J50" t="s">
+        <v>398</v>
+      </c>
+      <c r="K50" t="s">
+        <v>399</v>
+      </c>
+      <c r="L50" t="s">
+        <v>400</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>401</v>
+      </c>
+      <c r="O50" t="s">
+        <v>66</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>402</v>
+      </c>
+      <c r="X50" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>405</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>406</v>
+      </c>
+      <c r="J51" t="s">
+        <v>407</v>
+      </c>
+      <c r="K51" t="s">
+        <v>408</v>
+      </c>
+      <c r="L51" t="s">
+        <v>409</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>410</v>
+      </c>
+      <c r="O51" t="s">
+        <v>66</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>411</v>
+      </c>
+      <c r="X51" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>414</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>415</v>
+      </c>
+      <c r="J52" t="s">
+        <v>416</v>
+      </c>
+      <c r="K52" t="s">
+        <v>417</v>
+      </c>
+      <c r="L52" t="s">
+        <v>418</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>419</v>
+      </c>
+      <c r="O52" t="s">
+        <v>52</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>420</v>
+      </c>
+      <c r="X52" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>423</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>424</v>
+      </c>
+      <c r="J53" t="s">
+        <v>425</v>
+      </c>
+      <c r="K53" t="s">
+        <v>426</v>
+      </c>
+      <c r="L53" t="s">
+        <v>427</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>428</v>
+      </c>
+      <c r="O53" t="s">
+        <v>66</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>429</v>
+      </c>
+      <c r="X53" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>432</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>433</v>
+      </c>
+      <c r="J54" t="s">
+        <v>434</v>
+      </c>
+      <c r="K54" t="s">
+        <v>435</v>
+      </c>
+      <c r="L54" t="s">
+        <v>436</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>429</v>
+      </c>
+      <c r="X54" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>438</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>439</v>
+      </c>
+      <c r="J55" t="s">
+        <v>440</v>
+      </c>
+      <c r="K55" t="s">
+        <v>441</v>
+      </c>
+      <c r="L55" t="s">
+        <v>442</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>429</v>
+      </c>
+      <c r="X55" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>65862</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>444</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>445</v>
+      </c>
+      <c r="J56" t="s">
+        <v>446</v>
+      </c>
+      <c r="K56" t="s">
+        <v>447</v>
+      </c>
+      <c r="L56" t="s">
+        <v>448</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>429</v>
+      </c>
+      <c r="X56" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>449</v>
       </c>
     </row>
   </sheetData>
